--- a/Excel Data/KYC_Amendment_Customer.xlsx
+++ b/Excel Data/KYC_Amendment_Customer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="124">
   <si>
     <t>OCCUPATION</t>
   </si>
@@ -84,9 +84,6 @@
     <t>KYC.REVW.COMENT</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>CUST.COMMENTS:1</t>
   </si>
   <si>
@@ -94,16 +91,323 @@
   </si>
   <si>
     <t>value:1:1:1</t>
+  </si>
+  <si>
+    <t>Testing1</t>
+  </si>
+  <si>
+    <t>Testing2</t>
+  </si>
+  <si>
+    <t>Testing3</t>
+  </si>
+  <si>
+    <t>Testing4</t>
+  </si>
+  <si>
+    <t>Testing5</t>
+  </si>
+  <si>
+    <t>Testing6</t>
+  </si>
+  <si>
+    <t>Testing7</t>
+  </si>
+  <si>
+    <t>Testing8</t>
+  </si>
+  <si>
+    <t>Testing9</t>
+  </si>
+  <si>
+    <t>Testing10</t>
+  </si>
+  <si>
+    <t>Testing11</t>
+  </si>
+  <si>
+    <t>Testing12</t>
+  </si>
+  <si>
+    <t>Testing13</t>
+  </si>
+  <si>
+    <t>Testing14</t>
+  </si>
+  <si>
+    <t>Testing15</t>
+  </si>
+  <si>
+    <t>Testing16</t>
+  </si>
+  <si>
+    <t>Testing17</t>
+  </si>
+  <si>
+    <t>Testing18</t>
+  </si>
+  <si>
+    <t>Testing19</t>
+  </si>
+  <si>
+    <t>Testing20</t>
+  </si>
+  <si>
+    <t>Testing21</t>
+  </si>
+  <si>
+    <t>Testing22</t>
+  </si>
+  <si>
+    <t>Testing23</t>
+  </si>
+  <si>
+    <t>Testing24</t>
+  </si>
+  <si>
+    <t>Testing25</t>
+  </si>
+  <si>
+    <t>Testing26</t>
+  </si>
+  <si>
+    <t>Testing27</t>
+  </si>
+  <si>
+    <t>Testing28</t>
+  </si>
+  <si>
+    <t>Testing29</t>
+  </si>
+  <si>
+    <t>Testing30</t>
+  </si>
+  <si>
+    <t>Testing31</t>
+  </si>
+  <si>
+    <t>Testing32</t>
+  </si>
+  <si>
+    <t>Testing33</t>
+  </si>
+  <si>
+    <t>Testing34</t>
+  </si>
+  <si>
+    <t>Testing35</t>
+  </si>
+  <si>
+    <t>Testing36</t>
+  </si>
+  <si>
+    <t>Testing37</t>
+  </si>
+  <si>
+    <t>Testing38</t>
+  </si>
+  <si>
+    <t>Testing39</t>
+  </si>
+  <si>
+    <t>Testing40</t>
+  </si>
+  <si>
+    <t>Testing41</t>
+  </si>
+  <si>
+    <t>Testing42</t>
+  </si>
+  <si>
+    <t>Testing43</t>
+  </si>
+  <si>
+    <t>Testing44</t>
+  </si>
+  <si>
+    <t>Testing45</t>
+  </si>
+  <si>
+    <t>Testing46</t>
+  </si>
+  <si>
+    <t>Testing47</t>
+  </si>
+  <si>
+    <t>Testing48</t>
+  </si>
+  <si>
+    <t>Testing49</t>
+  </si>
+  <si>
+    <t>Testing50</t>
+  </si>
+  <si>
+    <t>Testing51</t>
+  </si>
+  <si>
+    <t>Testing52</t>
+  </si>
+  <si>
+    <t>Testing53</t>
+  </si>
+  <si>
+    <t>Testing54</t>
+  </si>
+  <si>
+    <t>Testing55</t>
+  </si>
+  <si>
+    <t>Testing56</t>
+  </si>
+  <si>
+    <t>Testing57</t>
+  </si>
+  <si>
+    <t>Testing58</t>
+  </si>
+  <si>
+    <t>Testing59</t>
+  </si>
+  <si>
+    <t>Testing60</t>
+  </si>
+  <si>
+    <t>Testing61</t>
+  </si>
+  <si>
+    <t>Testing62</t>
+  </si>
+  <si>
+    <t>Testing63</t>
+  </si>
+  <si>
+    <t>Testing64</t>
+  </si>
+  <si>
+    <t>Testing65</t>
+  </si>
+  <si>
+    <t>Testing66</t>
+  </si>
+  <si>
+    <t>Testing67</t>
+  </si>
+  <si>
+    <t>Testing68</t>
+  </si>
+  <si>
+    <t>Testing69</t>
+  </si>
+  <si>
+    <t>Testing70</t>
+  </si>
+  <si>
+    <t>Testing71</t>
+  </si>
+  <si>
+    <t>Testing72</t>
+  </si>
+  <si>
+    <t>Testing73</t>
+  </si>
+  <si>
+    <t>Testing74</t>
+  </si>
+  <si>
+    <t>Testing75</t>
+  </si>
+  <si>
+    <t>Testing76</t>
+  </si>
+  <si>
+    <t>Testing77</t>
+  </si>
+  <si>
+    <t>Testing78</t>
+  </si>
+  <si>
+    <t>Testing79</t>
+  </si>
+  <si>
+    <t>Testing80</t>
+  </si>
+  <si>
+    <t>Testing81</t>
+  </si>
+  <si>
+    <t>Testing82</t>
+  </si>
+  <si>
+    <t>Testing83</t>
+  </si>
+  <si>
+    <t>Testing84</t>
+  </si>
+  <si>
+    <t>Testing85</t>
+  </si>
+  <si>
+    <t>Testing86</t>
+  </si>
+  <si>
+    <t>Testing87</t>
+  </si>
+  <si>
+    <t>Testing88</t>
+  </si>
+  <si>
+    <t>Testing89</t>
+  </si>
+  <si>
+    <t>Testing90</t>
+  </si>
+  <si>
+    <t>Testing91</t>
+  </si>
+  <si>
+    <t>Testing92</t>
+  </si>
+  <si>
+    <t>Testing93</t>
+  </si>
+  <si>
+    <t>Testing94</t>
+  </si>
+  <si>
+    <t>Testing95</t>
+  </si>
+  <si>
+    <t>Testing96</t>
+  </si>
+  <si>
+    <t>Testing97</t>
+  </si>
+  <si>
+    <t>Testing98</t>
+  </si>
+  <si>
+    <t>Testing99</t>
+  </si>
+  <si>
+    <t>Testing100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,8 +433,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F91" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -487,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -537,10 +844,5257 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>10003973</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>20000000</v>
+      </c>
+      <c r="M3">
+        <v>400000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10003893</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>20000000</v>
+      </c>
+      <c r="M4">
+        <v>400000</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>10003974</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>20000000</v>
+      </c>
+      <c r="M5">
+        <v>400000</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10003975</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>20000000</v>
+      </c>
+      <c r="M6">
+        <v>400000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>10003897</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>20000000</v>
+      </c>
+      <c r="M7">
+        <v>400000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>10003899</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>20000000</v>
+      </c>
+      <c r="M8">
+        <v>400000</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>10003889</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>20000000</v>
+      </c>
+      <c r="M9">
+        <v>400000</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10003910</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>20000000</v>
+      </c>
+      <c r="M10">
+        <v>400000</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10003976</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>20000000</v>
+      </c>
+      <c r="M11">
+        <v>400000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10004050</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>20000000</v>
+      </c>
+      <c r="M12">
+        <v>400000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10003901</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>20000000</v>
+      </c>
+      <c r="M13">
+        <v>400000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10003980</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>20000000</v>
+      </c>
+      <c r="M14">
+        <v>400000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10006614</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>20000000</v>
+      </c>
+      <c r="M15">
+        <v>400000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>10006616</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>20000000</v>
+      </c>
+      <c r="M16">
+        <v>400000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>10006621</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>20000000</v>
+      </c>
+      <c r="M17">
+        <v>400000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>10006627</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>20000000</v>
+      </c>
+      <c r="M18">
+        <v>400000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>17</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>10006601</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>20000000</v>
+      </c>
+      <c r="M19">
+        <v>400000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19">
+        <v>18</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>10006602</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>20000000</v>
+      </c>
+      <c r="M20">
+        <v>400000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>10006623</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>20000000</v>
+      </c>
+      <c r="M21">
+        <v>400000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>10004060</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>20000000</v>
+      </c>
+      <c r="M22">
+        <v>400000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="P22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>10006619</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>20000000</v>
+      </c>
+      <c r="M23">
+        <v>400000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23">
+        <v>22</v>
+      </c>
+      <c r="P23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>10060290</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>20000000</v>
+      </c>
+      <c r="M24">
+        <v>400000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24">
         <v>23</v>
+      </c>
+      <c r="P24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>10060290</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>20000000</v>
+      </c>
+      <c r="M25">
+        <v>400000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>10114915</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>20000000</v>
+      </c>
+      <c r="M26">
+        <v>400000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26">
+        <v>25</v>
+      </c>
+      <c r="P26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>10131566</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>20000000</v>
+      </c>
+      <c r="M27">
+        <v>400000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>10132057</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>20000000</v>
+      </c>
+      <c r="M28">
+        <v>400000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28">
+        <v>27</v>
+      </c>
+      <c r="P28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>10132151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>20000000</v>
+      </c>
+      <c r="M29">
+        <v>400000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="P29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>10132083</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>20000000</v>
+      </c>
+      <c r="M30">
+        <v>400000</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>10130824</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>20000000</v>
+      </c>
+      <c r="M31">
+        <v>400000</v>
+      </c>
+      <c r="N31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>10130816</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>20000000</v>
+      </c>
+      <c r="M32">
+        <v>400000</v>
+      </c>
+      <c r="N32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32">
+        <v>31</v>
+      </c>
+      <c r="P32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>10131951</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>20000000</v>
+      </c>
+      <c r="M33">
+        <v>400000</v>
+      </c>
+      <c r="N33" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33">
+        <v>32</v>
+      </c>
+      <c r="P33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>10131955</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>20000000</v>
+      </c>
+      <c r="M34">
+        <v>400000</v>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34">
+        <v>33</v>
+      </c>
+      <c r="P34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>10132111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>20000000</v>
+      </c>
+      <c r="M35">
+        <v>400000</v>
+      </c>
+      <c r="N35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>10131935</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>20000000</v>
+      </c>
+      <c r="M36">
+        <v>400000</v>
+      </c>
+      <c r="N36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36">
+        <v>35</v>
+      </c>
+      <c r="P36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>10132161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>20000000</v>
+      </c>
+      <c r="M37">
+        <v>400000</v>
+      </c>
+      <c r="N37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37">
+        <v>36</v>
+      </c>
+      <c r="P37" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>10130829</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>20000000</v>
+      </c>
+      <c r="M38">
+        <v>400000</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38">
+        <v>37</v>
+      </c>
+      <c r="P38" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>10131957</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>20000000</v>
+      </c>
+      <c r="M39">
+        <v>400000</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39">
+        <v>38</v>
+      </c>
+      <c r="P39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>10132108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>20000000</v>
+      </c>
+      <c r="M40">
+        <v>400000</v>
+      </c>
+      <c r="N40" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40">
+        <v>39</v>
+      </c>
+      <c r="P40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>10290041</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>20000000</v>
+      </c>
+      <c r="M41">
+        <v>400000</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41">
+        <v>40</v>
+      </c>
+      <c r="P41" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>10289638</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>20000000</v>
+      </c>
+      <c r="M42">
+        <v>400000</v>
+      </c>
+      <c r="N42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42">
+        <v>41</v>
+      </c>
+      <c r="P42" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>10290433</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>20000000</v>
+      </c>
+      <c r="M43">
+        <v>400000</v>
+      </c>
+      <c r="N43" t="s">
+        <v>18</v>
+      </c>
+      <c r="O43">
+        <v>42</v>
+      </c>
+      <c r="P43" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>10290871</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>20000000</v>
+      </c>
+      <c r="M44">
+        <v>400000</v>
+      </c>
+      <c r="N44" t="s">
+        <v>18</v>
+      </c>
+      <c r="O44">
+        <v>43</v>
+      </c>
+      <c r="P44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>10290966</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>20000000</v>
+      </c>
+      <c r="M45">
+        <v>400000</v>
+      </c>
+      <c r="N45" t="s">
+        <v>18</v>
+      </c>
+      <c r="O45">
+        <v>44</v>
+      </c>
+      <c r="P45" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>10278707</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>20000000</v>
+      </c>
+      <c r="M46">
+        <v>400000</v>
+      </c>
+      <c r="N46" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46">
+        <v>45</v>
+      </c>
+      <c r="P46" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>10131579</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>20000000</v>
+      </c>
+      <c r="M47">
+        <v>400000</v>
+      </c>
+      <c r="N47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O47">
+        <v>46</v>
+      </c>
+      <c r="P47" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>10131580</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>20000000</v>
+      </c>
+      <c r="M48">
+        <v>400000</v>
+      </c>
+      <c r="N48" t="s">
+        <v>18</v>
+      </c>
+      <c r="O48">
+        <v>47</v>
+      </c>
+      <c r="P48" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>10131635</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>20000000</v>
+      </c>
+      <c r="M49">
+        <v>400000</v>
+      </c>
+      <c r="N49" t="s">
+        <v>18</v>
+      </c>
+      <c r="O49">
+        <v>48</v>
+      </c>
+      <c r="P49" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>10131655</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>20000000</v>
+      </c>
+      <c r="M50">
+        <v>400000</v>
+      </c>
+      <c r="N50" t="s">
+        <v>18</v>
+      </c>
+      <c r="O50">
+        <v>49</v>
+      </c>
+      <c r="P50" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>10132121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>20000000</v>
+      </c>
+      <c r="M51">
+        <v>400000</v>
+      </c>
+      <c r="N51" t="s">
+        <v>18</v>
+      </c>
+      <c r="O51">
+        <v>50</v>
+      </c>
+      <c r="P51" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>10289693</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>20000000</v>
+      </c>
+      <c r="M52">
+        <v>400000</v>
+      </c>
+      <c r="N52" t="s">
+        <v>18</v>
+      </c>
+      <c r="O52">
+        <v>51</v>
+      </c>
+      <c r="P52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>10290337</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>20000000</v>
+      </c>
+      <c r="M53">
+        <v>400000</v>
+      </c>
+      <c r="N53" t="s">
+        <v>18</v>
+      </c>
+      <c r="O53">
+        <v>52</v>
+      </c>
+      <c r="P53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>10290293</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>20000000</v>
+      </c>
+      <c r="M54">
+        <v>400000</v>
+      </c>
+      <c r="N54" t="s">
+        <v>18</v>
+      </c>
+      <c r="O54">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>10290410</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>20000000</v>
+      </c>
+      <c r="M55">
+        <v>400000</v>
+      </c>
+      <c r="N55" t="s">
+        <v>18</v>
+      </c>
+      <c r="O55">
+        <v>54</v>
+      </c>
+      <c r="P55" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>10130914</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>20000000</v>
+      </c>
+      <c r="M56">
+        <v>400000</v>
+      </c>
+      <c r="N56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O56">
+        <v>55</v>
+      </c>
+      <c r="P56" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>10290300</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>20000000</v>
+      </c>
+      <c r="M57">
+        <v>400000</v>
+      </c>
+      <c r="N57" t="s">
+        <v>18</v>
+      </c>
+      <c r="O57">
+        <v>56</v>
+      </c>
+      <c r="P57" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>10290392</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>20000000</v>
+      </c>
+      <c r="M58">
+        <v>400000</v>
+      </c>
+      <c r="N58" t="s">
+        <v>18</v>
+      </c>
+      <c r="O58">
+        <v>57</v>
+      </c>
+      <c r="P58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>10290464</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>20000000</v>
+      </c>
+      <c r="M59">
+        <v>400000</v>
+      </c>
+      <c r="N59" t="s">
+        <v>18</v>
+      </c>
+      <c r="O59">
+        <v>58</v>
+      </c>
+      <c r="P59" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>10290464</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>20000000</v>
+      </c>
+      <c r="M60">
+        <v>400000</v>
+      </c>
+      <c r="N60" t="s">
+        <v>18</v>
+      </c>
+      <c r="O60">
+        <v>59</v>
+      </c>
+      <c r="P60" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>10290434</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>20000000</v>
+      </c>
+      <c r="M61">
+        <v>400000</v>
+      </c>
+      <c r="N61" t="s">
+        <v>18</v>
+      </c>
+      <c r="O61">
+        <v>60</v>
+      </c>
+      <c r="P61" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>10131587</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>20000000</v>
+      </c>
+      <c r="M62">
+        <v>400000</v>
+      </c>
+      <c r="N62" t="s">
+        <v>18</v>
+      </c>
+      <c r="O62">
+        <v>61</v>
+      </c>
+      <c r="P62" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>10290476</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>20000000</v>
+      </c>
+      <c r="M63">
+        <v>400000</v>
+      </c>
+      <c r="N63" t="s">
+        <v>18</v>
+      </c>
+      <c r="O63">
+        <v>62</v>
+      </c>
+      <c r="P63" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>10290369</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>20000000</v>
+      </c>
+      <c r="M64">
+        <v>400000</v>
+      </c>
+      <c r="N64" t="s">
+        <v>18</v>
+      </c>
+      <c r="O64">
+        <v>63</v>
+      </c>
+      <c r="P64" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>10290431</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>20000000</v>
+      </c>
+      <c r="M65">
+        <v>400000</v>
+      </c>
+      <c r="N65" t="s">
+        <v>18</v>
+      </c>
+      <c r="O65">
+        <v>64</v>
+      </c>
+      <c r="P65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>10291654</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>20000000</v>
+      </c>
+      <c r="M66">
+        <v>400000</v>
+      </c>
+      <c r="N66" t="s">
+        <v>18</v>
+      </c>
+      <c r="O66">
+        <v>65</v>
+      </c>
+      <c r="P66" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>10693586</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>20000000</v>
+      </c>
+      <c r="M67">
+        <v>400000</v>
+      </c>
+      <c r="N67" t="s">
+        <v>18</v>
+      </c>
+      <c r="O67">
+        <v>66</v>
+      </c>
+      <c r="P67" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>10693710</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>20000000</v>
+      </c>
+      <c r="M68">
+        <v>400000</v>
+      </c>
+      <c r="N68" t="s">
+        <v>18</v>
+      </c>
+      <c r="O68">
+        <v>67</v>
+      </c>
+      <c r="P68" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>10694974</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>20000000</v>
+      </c>
+      <c r="M69">
+        <v>400000</v>
+      </c>
+      <c r="N69" t="s">
+        <v>18</v>
+      </c>
+      <c r="O69">
+        <v>68</v>
+      </c>
+      <c r="P69" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>10694963</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>20000000</v>
+      </c>
+      <c r="M70">
+        <v>400000</v>
+      </c>
+      <c r="N70" t="s">
+        <v>18</v>
+      </c>
+      <c r="O70">
+        <v>69</v>
+      </c>
+      <c r="P70" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>10694896</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>20000000</v>
+      </c>
+      <c r="M71">
+        <v>400000</v>
+      </c>
+      <c r="N71" t="s">
+        <v>18</v>
+      </c>
+      <c r="O71">
+        <v>70</v>
+      </c>
+      <c r="P71" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>10695077</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>20000000</v>
+      </c>
+      <c r="M72">
+        <v>400000</v>
+      </c>
+      <c r="N72" t="s">
+        <v>18</v>
+      </c>
+      <c r="O72">
+        <v>71</v>
+      </c>
+      <c r="P72" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>10794190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>20000000</v>
+      </c>
+      <c r="M73">
+        <v>400000</v>
+      </c>
+      <c r="N73" t="s">
+        <v>18</v>
+      </c>
+      <c r="O73">
+        <v>72</v>
+      </c>
+      <c r="P73" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>10796612</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>20000000</v>
+      </c>
+      <c r="M74">
+        <v>400000</v>
+      </c>
+      <c r="N74" t="s">
+        <v>18</v>
+      </c>
+      <c r="O74">
+        <v>73</v>
+      </c>
+      <c r="P74" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>10797028</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>20000000</v>
+      </c>
+      <c r="M75">
+        <v>400000</v>
+      </c>
+      <c r="N75" t="s">
+        <v>18</v>
+      </c>
+      <c r="O75">
+        <v>74</v>
+      </c>
+      <c r="P75" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>10797477</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>20000000</v>
+      </c>
+      <c r="M76">
+        <v>400000</v>
+      </c>
+      <c r="N76" t="s">
+        <v>18</v>
+      </c>
+      <c r="O76">
+        <v>75</v>
+      </c>
+      <c r="P76" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>10798251</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>20000000</v>
+      </c>
+      <c r="M77">
+        <v>400000</v>
+      </c>
+      <c r="N77" t="s">
+        <v>18</v>
+      </c>
+      <c r="O77">
+        <v>76</v>
+      </c>
+      <c r="P77" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>10798352</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>20000000</v>
+      </c>
+      <c r="M78">
+        <v>400000</v>
+      </c>
+      <c r="N78" t="s">
+        <v>18</v>
+      </c>
+      <c r="O78">
+        <v>77</v>
+      </c>
+      <c r="P78" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>10803986</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>20000000</v>
+      </c>
+      <c r="M79">
+        <v>400000</v>
+      </c>
+      <c r="N79" t="s">
+        <v>18</v>
+      </c>
+      <c r="O79">
+        <v>78</v>
+      </c>
+      <c r="P79" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>10804183</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>20000000</v>
+      </c>
+      <c r="M80">
+        <v>400000</v>
+      </c>
+      <c r="N80" t="s">
+        <v>18</v>
+      </c>
+      <c r="O80">
+        <v>79</v>
+      </c>
+      <c r="P80" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>10804645</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+      <c r="G81">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>20000000</v>
+      </c>
+      <c r="M81">
+        <v>400000</v>
+      </c>
+      <c r="N81" t="s">
+        <v>18</v>
+      </c>
+      <c r="O81">
+        <v>80</v>
+      </c>
+      <c r="P81" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>10804645</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>20000000</v>
+      </c>
+      <c r="M82">
+        <v>400000</v>
+      </c>
+      <c r="N82" t="s">
+        <v>18</v>
+      </c>
+      <c r="O82">
+        <v>81</v>
+      </c>
+      <c r="P82" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>10805518</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83">
+        <v>7</v>
+      </c>
+      <c r="G83">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>11</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>20000000</v>
+      </c>
+      <c r="M83">
+        <v>400000</v>
+      </c>
+      <c r="N83" t="s">
+        <v>18</v>
+      </c>
+      <c r="O83">
+        <v>82</v>
+      </c>
+      <c r="P83" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>10806198</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+      <c r="G84">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>20000000</v>
+      </c>
+      <c r="M84">
+        <v>400000</v>
+      </c>
+      <c r="N84" t="s">
+        <v>18</v>
+      </c>
+      <c r="O84">
+        <v>83</v>
+      </c>
+      <c r="P84" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>10825325</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>20000000</v>
+      </c>
+      <c r="M85">
+        <v>400000</v>
+      </c>
+      <c r="N85" t="s">
+        <v>18</v>
+      </c>
+      <c r="O85">
+        <v>84</v>
+      </c>
+      <c r="P85" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>10826433</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86">
+        <v>7</v>
+      </c>
+      <c r="G86">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>20000000</v>
+      </c>
+      <c r="M86">
+        <v>400000</v>
+      </c>
+      <c r="N86" t="s">
+        <v>18</v>
+      </c>
+      <c r="O86">
+        <v>85</v>
+      </c>
+      <c r="P86" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>10827318</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>20000000</v>
+      </c>
+      <c r="M87">
+        <v>400000</v>
+      </c>
+      <c r="N87" t="s">
+        <v>18</v>
+      </c>
+      <c r="O87">
+        <v>86</v>
+      </c>
+      <c r="P87" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>10831959</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>20000000</v>
+      </c>
+      <c r="M88">
+        <v>400000</v>
+      </c>
+      <c r="N88" t="s">
+        <v>18</v>
+      </c>
+      <c r="O88">
+        <v>87</v>
+      </c>
+      <c r="P88" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>10793134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>20000000</v>
+      </c>
+      <c r="M89">
+        <v>400000</v>
+      </c>
+      <c r="N89" t="s">
+        <v>18</v>
+      </c>
+      <c r="O89">
+        <v>88</v>
+      </c>
+      <c r="P89" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>10797447</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>20000000</v>
+      </c>
+      <c r="M90">
+        <v>400000</v>
+      </c>
+      <c r="N90" t="s">
+        <v>18</v>
+      </c>
+      <c r="O90">
+        <v>89</v>
+      </c>
+      <c r="P90" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>10800474</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91">
+        <v>7</v>
+      </c>
+      <c r="G91">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>20000000</v>
+      </c>
+      <c r="M91">
+        <v>400000</v>
+      </c>
+      <c r="N91" t="s">
+        <v>18</v>
+      </c>
+      <c r="O91">
+        <v>90</v>
+      </c>
+      <c r="P91" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>10895530</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>20000000</v>
+      </c>
+      <c r="M92">
+        <v>400000</v>
+      </c>
+      <c r="N92" t="s">
+        <v>18</v>
+      </c>
+      <c r="O92">
+        <v>91</v>
+      </c>
+      <c r="P92" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>10895563</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>11</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>20000000</v>
+      </c>
+      <c r="M93">
+        <v>400000</v>
+      </c>
+      <c r="N93" t="s">
+        <v>18</v>
+      </c>
+      <c r="O93">
+        <v>92</v>
+      </c>
+      <c r="P93" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>10803107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s">
+        <v>11</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>20000000</v>
+      </c>
+      <c r="M94">
+        <v>400000</v>
+      </c>
+      <c r="N94" t="s">
+        <v>18</v>
+      </c>
+      <c r="O94">
+        <v>93</v>
+      </c>
+      <c r="P94" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>10802374</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>20000000</v>
+      </c>
+      <c r="M95">
+        <v>400000</v>
+      </c>
+      <c r="N95" t="s">
+        <v>18</v>
+      </c>
+      <c r="O95">
+        <v>94</v>
+      </c>
+      <c r="P95" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>10804048</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>20000000</v>
+      </c>
+      <c r="M96">
+        <v>400000</v>
+      </c>
+      <c r="N96" t="s">
+        <v>18</v>
+      </c>
+      <c r="O96">
+        <v>95</v>
+      </c>
+      <c r="P96" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>10804243</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97">
+        <v>7</v>
+      </c>
+      <c r="G97">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>20000000</v>
+      </c>
+      <c r="M97">
+        <v>400000</v>
+      </c>
+      <c r="N97" t="s">
+        <v>18</v>
+      </c>
+      <c r="O97">
+        <v>96</v>
+      </c>
+      <c r="P97" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>10805155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>20000000</v>
+      </c>
+      <c r="M98">
+        <v>400000</v>
+      </c>
+      <c r="N98" t="s">
+        <v>18</v>
+      </c>
+      <c r="O98">
+        <v>97</v>
+      </c>
+      <c r="P98" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>10805710</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>20000000</v>
+      </c>
+      <c r="M99">
+        <v>400000</v>
+      </c>
+      <c r="N99" t="s">
+        <v>18</v>
+      </c>
+      <c r="O99">
+        <v>98</v>
+      </c>
+      <c r="P99" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>10827268</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+      <c r="G100">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>20000000</v>
+      </c>
+      <c r="M100">
+        <v>400000</v>
+      </c>
+      <c r="N100" t="s">
+        <v>18</v>
+      </c>
+      <c r="O100">
+        <v>99</v>
+      </c>
+      <c r="P100" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>10693601</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101">
+        <v>7</v>
+      </c>
+      <c r="G101">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>20000000</v>
+      </c>
+      <c r="M101">
+        <v>400000</v>
+      </c>
+      <c r="N101" t="s">
+        <v>18</v>
+      </c>
+      <c r="O101">
+        <v>100</v>
+      </c>
+      <c r="P101" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/KYC_Amendment_Customer.xlsx
+++ b/Excel Data/KYC_Amendment_Customer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="123">
   <si>
     <t>OCCUPATION</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CS.EMP.SINCE</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>CURRENT.SALARY</t>
@@ -720,12 +717,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F91" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -746,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -770,31 +768,31 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -813,18 +811,6 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -838,16 +824,13 @@
         <v>400000</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -866,18 +849,6 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -891,16 +862,13 @@
         <v>400000</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -919,18 +887,6 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -944,16 +900,13 @@
         <v>400000</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -972,18 +925,6 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -997,16 +938,13 @@
         <v>400000</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1025,18 +963,6 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -1050,16 +976,13 @@
         <v>400000</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1078,18 +1001,6 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -1103,16 +1014,13 @@
         <v>400000</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1131,18 +1039,6 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -1156,16 +1052,13 @@
         <v>400000</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1184,18 +1077,6 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
@@ -1209,16 +1090,13 @@
         <v>400000</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1237,18 +1115,6 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
@@ -1262,16 +1128,13 @@
         <v>400000</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1290,18 +1153,6 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -1315,16 +1166,13 @@
         <v>400000</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1343,18 +1191,6 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
         <v>0</v>
       </c>
@@ -1368,16 +1204,13 @@
         <v>400000</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1396,18 +1229,6 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
         <v>0</v>
       </c>
@@ -1421,16 +1242,13 @@
         <v>400000</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1449,18 +1267,6 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
         <v>0</v>
       </c>
@@ -1474,16 +1280,13 @@
         <v>400000</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1502,18 +1305,6 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
@@ -1527,16 +1318,13 @@
         <v>400000</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1555,18 +1343,6 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -1580,16 +1356,13 @@
         <v>400000</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1608,18 +1381,6 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -1633,16 +1394,13 @@
         <v>400000</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1661,18 +1419,6 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
@@ -1686,16 +1432,13 @@
         <v>400000</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1714,18 +1457,6 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="G19">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
@@ -1739,16 +1470,13 @@
         <v>400000</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1767,18 +1495,6 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
@@ -1792,16 +1508,13 @@
         <v>400000</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -1820,18 +1533,6 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
@@ -1845,16 +1546,13 @@
         <v>400000</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1873,18 +1571,6 @@
       <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-      <c r="G22">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
@@ -1898,16 +1584,13 @@
         <v>400000</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1926,18 +1609,6 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="F23">
-        <v>7</v>
-      </c>
-      <c r="G23">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -1951,16 +1622,13 @@
         <v>400000</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1979,18 +1647,6 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F24">
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -2004,16 +1660,13 @@
         <v>400000</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
-      </c>
-      <c r="O24">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2032,18 +1685,6 @@
       <c r="E25" t="s">
         <v>7</v>
       </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
@@ -2057,16 +1698,13 @@
         <v>400000</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
-      </c>
-      <c r="O25">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2085,18 +1723,6 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
@@ -2110,16 +1736,13 @@
         <v>400000</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2138,18 +1761,6 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-      <c r="G27">
-        <v>14</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2163,16 +1774,13 @@
         <v>400000</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2191,18 +1799,6 @@
       <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28">
-        <v>7</v>
-      </c>
-      <c r="G28">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>0</v>
       </c>
@@ -2216,16 +1812,13 @@
         <v>400000</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
-      </c>
-      <c r="O28">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2244,18 +1837,6 @@
       <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29">
-        <v>14</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29">
         <v>0</v>
       </c>
@@ -2269,16 +1850,13 @@
         <v>400000</v>
       </c>
       <c r="N29" t="s">
-        <v>18</v>
-      </c>
-      <c r="O29">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="P29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2297,18 +1875,6 @@
       <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30">
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
@@ -2322,16 +1888,13 @@
         <v>400000</v>
       </c>
       <c r="N30" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2350,18 +1913,6 @@
       <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F31">
-        <v>7</v>
-      </c>
-      <c r="G31">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
         <v>0</v>
       </c>
@@ -2375,16 +1926,13 @@
         <v>400000</v>
       </c>
       <c r="N31" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2403,18 +1951,6 @@
       <c r="E32" t="s">
         <v>7</v>
       </c>
-      <c r="F32">
-        <v>7</v>
-      </c>
-      <c r="G32">
-        <v>14</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
       <c r="J32">
         <v>0</v>
       </c>
@@ -2428,16 +1964,13 @@
         <v>400000</v>
       </c>
       <c r="N32" t="s">
-        <v>18</v>
-      </c>
-      <c r="O32">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="P32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2456,18 +1989,6 @@
       <c r="E33" t="s">
         <v>7</v>
       </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -2481,16 +2002,13 @@
         <v>400000</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
-      </c>
-      <c r="O33">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2509,18 +2027,6 @@
       <c r="E34" t="s">
         <v>7</v>
       </c>
-      <c r="F34">
-        <v>7</v>
-      </c>
-      <c r="G34">
-        <v>14</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
       <c r="J34">
         <v>0</v>
       </c>
@@ -2534,16 +2040,13 @@
         <v>400000</v>
       </c>
       <c r="N34" t="s">
-        <v>18</v>
-      </c>
-      <c r="O34">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="P34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2562,18 +2065,6 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-      <c r="F35">
-        <v>7</v>
-      </c>
-      <c r="G35">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
       <c r="J35">
         <v>0</v>
       </c>
@@ -2587,16 +2078,13 @@
         <v>400000</v>
       </c>
       <c r="N35" t="s">
-        <v>18</v>
-      </c>
-      <c r="O35">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2615,18 +2103,6 @@
       <c r="E36" t="s">
         <v>7</v>
       </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
-      <c r="G36">
-        <v>14</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36">
         <v>0</v>
       </c>
@@ -2640,16 +2116,13 @@
         <v>400000</v>
       </c>
       <c r="N36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="P36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2668,18 +2141,6 @@
       <c r="E37" t="s">
         <v>7</v>
       </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37">
-        <v>14</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
         <v>0</v>
       </c>
@@ -2693,16 +2154,13 @@
         <v>400000</v>
       </c>
       <c r="N37" t="s">
-        <v>18</v>
-      </c>
-      <c r="O37">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="P37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2721,18 +2179,6 @@
       <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="F38">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38">
         <v>0</v>
       </c>
@@ -2746,16 +2192,13 @@
         <v>400000</v>
       </c>
       <c r="N38" t="s">
-        <v>18</v>
-      </c>
-      <c r="O38">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="P38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -2774,18 +2217,6 @@
       <c r="E39" t="s">
         <v>7</v>
       </c>
-      <c r="F39">
-        <v>7</v>
-      </c>
-      <c r="G39">
-        <v>14</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
         <v>0</v>
       </c>
@@ -2799,16 +2230,13 @@
         <v>400000</v>
       </c>
       <c r="N39" t="s">
-        <v>18</v>
-      </c>
-      <c r="O39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="P39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -2827,18 +2255,6 @@
       <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="F40">
-        <v>7</v>
-      </c>
-      <c r="G40">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
         <v>0</v>
       </c>
@@ -2852,16 +2268,13 @@
         <v>400000</v>
       </c>
       <c r="N40" t="s">
-        <v>18</v>
-      </c>
-      <c r="O40">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -2880,18 +2293,6 @@
       <c r="E41" t="s">
         <v>7</v>
       </c>
-      <c r="F41">
-        <v>7</v>
-      </c>
-      <c r="G41">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41">
         <v>0</v>
       </c>
@@ -2905,16 +2306,13 @@
         <v>400000</v>
       </c>
       <c r="N41" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="P41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -2933,18 +2331,6 @@
       <c r="E42" t="s">
         <v>7</v>
       </c>
-      <c r="F42">
-        <v>7</v>
-      </c>
-      <c r="G42">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
       <c r="J42">
         <v>0</v>
       </c>
@@ -2958,16 +2344,13 @@
         <v>400000</v>
       </c>
       <c r="N42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O42">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="P42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -2986,18 +2369,6 @@
       <c r="E43" t="s">
         <v>7</v>
       </c>
-      <c r="F43">
-        <v>7</v>
-      </c>
-      <c r="G43">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
         <v>0</v>
       </c>
@@ -3011,16 +2382,13 @@
         <v>400000</v>
       </c>
       <c r="N43" t="s">
-        <v>18</v>
-      </c>
-      <c r="O43">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="P43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -3039,18 +2407,6 @@
       <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="F44">
-        <v>7</v>
-      </c>
-      <c r="G44">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
       <c r="J44">
         <v>0</v>
       </c>
@@ -3064,16 +2420,13 @@
         <v>400000</v>
       </c>
       <c r="N44" t="s">
-        <v>18</v>
-      </c>
-      <c r="O44">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="P44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -3092,18 +2445,6 @@
       <c r="E45" t="s">
         <v>7</v>
       </c>
-      <c r="F45">
-        <v>7</v>
-      </c>
-      <c r="G45">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
         <v>0</v>
       </c>
@@ -3117,16 +2458,13 @@
         <v>400000</v>
       </c>
       <c r="N45" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="P45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3145,18 +2483,6 @@
       <c r="E46" t="s">
         <v>7</v>
       </c>
-      <c r="F46">
-        <v>7</v>
-      </c>
-      <c r="G46">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
       <c r="J46">
         <v>0</v>
       </c>
@@ -3170,16 +2496,13 @@
         <v>400000</v>
       </c>
       <c r="N46" t="s">
-        <v>18</v>
-      </c>
-      <c r="O46">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="P46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3198,18 +2521,6 @@
       <c r="E47" t="s">
         <v>7</v>
       </c>
-      <c r="F47">
-        <v>7</v>
-      </c>
-      <c r="G47">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
         <v>0</v>
       </c>
@@ -3223,16 +2534,13 @@
         <v>400000</v>
       </c>
       <c r="N47" t="s">
-        <v>18</v>
-      </c>
-      <c r="O47">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="P47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -3251,18 +2559,6 @@
       <c r="E48" t="s">
         <v>7</v>
       </c>
-      <c r="F48">
-        <v>7</v>
-      </c>
-      <c r="G48">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
       <c r="J48">
         <v>0</v>
       </c>
@@ -3276,16 +2572,13 @@
         <v>400000</v>
       </c>
       <c r="N48" t="s">
-        <v>18</v>
-      </c>
-      <c r="O48">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="P48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -3304,18 +2597,6 @@
       <c r="E49" t="s">
         <v>7</v>
       </c>
-      <c r="F49">
-        <v>7</v>
-      </c>
-      <c r="G49">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
         <v>0</v>
       </c>
@@ -3329,16 +2610,13 @@
         <v>400000</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
-      </c>
-      <c r="O49">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="P49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
@@ -3357,18 +2635,6 @@
       <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="F50">
-        <v>7</v>
-      </c>
-      <c r="G50">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50">
         <v>0</v>
       </c>
@@ -3382,16 +2648,13 @@
         <v>400000</v>
       </c>
       <c r="N50" t="s">
-        <v>18</v>
-      </c>
-      <c r="O50">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="P50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
@@ -3410,18 +2673,6 @@
       <c r="E51" t="s">
         <v>7</v>
       </c>
-      <c r="F51">
-        <v>7</v>
-      </c>
-      <c r="G51">
-        <v>14</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51">
         <v>0</v>
       </c>
@@ -3435,16 +2686,13 @@
         <v>400000</v>
       </c>
       <c r="N51" t="s">
-        <v>18</v>
-      </c>
-      <c r="O51">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="P51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
@@ -3463,18 +2711,6 @@
       <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="F52">
-        <v>7</v>
-      </c>
-      <c r="G52">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52">
         <v>0</v>
       </c>
@@ -3488,16 +2724,13 @@
         <v>400000</v>
       </c>
       <c r="N52" t="s">
-        <v>18</v>
-      </c>
-      <c r="O52">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="P52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
@@ -3516,18 +2749,6 @@
       <c r="E53" t="s">
         <v>7</v>
       </c>
-      <c r="F53">
-        <v>7</v>
-      </c>
-      <c r="G53">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
       <c r="J53">
         <v>0</v>
       </c>
@@ -3541,16 +2762,13 @@
         <v>400000</v>
       </c>
       <c r="N53" t="s">
-        <v>18</v>
-      </c>
-      <c r="O53">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="P53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
@@ -3569,18 +2787,6 @@
       <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="F54">
-        <v>7</v>
-      </c>
-      <c r="G54">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54">
         <v>0</v>
       </c>
@@ -3594,16 +2800,13 @@
         <v>400000</v>
       </c>
       <c r="N54" t="s">
-        <v>18</v>
-      </c>
-      <c r="O54">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="P54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -3622,18 +2825,6 @@
       <c r="E55" t="s">
         <v>7</v>
       </c>
-      <c r="F55">
-        <v>7</v>
-      </c>
-      <c r="G55">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
       <c r="J55">
         <v>0</v>
       </c>
@@ -3647,16 +2838,13 @@
         <v>400000</v>
       </c>
       <c r="N55" t="s">
-        <v>18</v>
-      </c>
-      <c r="O55">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="P55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3675,18 +2863,6 @@
       <c r="E56" t="s">
         <v>7</v>
       </c>
-      <c r="F56">
-        <v>7</v>
-      </c>
-      <c r="G56">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
       <c r="J56">
         <v>0</v>
       </c>
@@ -3700,16 +2876,13 @@
         <v>400000</v>
       </c>
       <c r="N56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O56">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="P56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
@@ -3728,18 +2901,6 @@
       <c r="E57" t="s">
         <v>7</v>
       </c>
-      <c r="F57">
-        <v>7</v>
-      </c>
-      <c r="G57">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57">
         <v>0</v>
       </c>
@@ -3753,16 +2914,13 @@
         <v>400000</v>
       </c>
       <c r="N57" t="s">
-        <v>18</v>
-      </c>
-      <c r="O57">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="P57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
@@ -3781,18 +2939,6 @@
       <c r="E58" t="s">
         <v>7</v>
       </c>
-      <c r="F58">
-        <v>7</v>
-      </c>
-      <c r="G58">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58">
         <v>0</v>
       </c>
@@ -3806,16 +2952,13 @@
         <v>400000</v>
       </c>
       <c r="N58" t="s">
-        <v>18</v>
-      </c>
-      <c r="O58">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="P58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3834,18 +2977,6 @@
       <c r="E59" t="s">
         <v>7</v>
       </c>
-      <c r="F59">
-        <v>7</v>
-      </c>
-      <c r="G59">
-        <v>14</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
       <c r="J59">
         <v>0</v>
       </c>
@@ -3859,16 +2990,13 @@
         <v>400000</v>
       </c>
       <c r="N59" t="s">
-        <v>18</v>
-      </c>
-      <c r="O59">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="P59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -3887,18 +3015,6 @@
       <c r="E60" t="s">
         <v>7</v>
       </c>
-      <c r="F60">
-        <v>7</v>
-      </c>
-      <c r="G60">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60">
         <v>0</v>
       </c>
@@ -3912,16 +3028,13 @@
         <v>400000</v>
       </c>
       <c r="N60" t="s">
-        <v>18</v>
-      </c>
-      <c r="O60">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="P60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3940,18 +3053,6 @@
       <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="F61">
-        <v>7</v>
-      </c>
-      <c r="G61">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61">
         <v>0</v>
       </c>
@@ -3965,16 +3066,13 @@
         <v>400000</v>
       </c>
       <c r="N61" t="s">
-        <v>18</v>
-      </c>
-      <c r="O61">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="P61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3993,18 +3091,6 @@
       <c r="E62" t="s">
         <v>7</v>
       </c>
-      <c r="F62">
-        <v>7</v>
-      </c>
-      <c r="G62">
-        <v>14</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
       <c r="J62">
         <v>0</v>
       </c>
@@ -4018,16 +3104,13 @@
         <v>400000</v>
       </c>
       <c r="N62" t="s">
-        <v>18</v>
-      </c>
-      <c r="O62">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="P62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4046,18 +3129,6 @@
       <c r="E63" t="s">
         <v>7</v>
       </c>
-      <c r="F63">
-        <v>7</v>
-      </c>
-      <c r="G63">
-        <v>14</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
         <v>0</v>
       </c>
@@ -4071,16 +3142,13 @@
         <v>400000</v>
       </c>
       <c r="N63" t="s">
-        <v>18</v>
-      </c>
-      <c r="O63">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="P63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4099,18 +3167,6 @@
       <c r="E64" t="s">
         <v>7</v>
       </c>
-      <c r="F64">
-        <v>7</v>
-      </c>
-      <c r="G64">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
       <c r="J64">
         <v>0</v>
       </c>
@@ -4124,16 +3180,13 @@
         <v>400000</v>
       </c>
       <c r="N64" t="s">
-        <v>18</v>
-      </c>
-      <c r="O64">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="P64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
@@ -4152,18 +3205,6 @@
       <c r="E65" t="s">
         <v>7</v>
       </c>
-      <c r="F65">
-        <v>7</v>
-      </c>
-      <c r="G65">
-        <v>14</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65">
         <v>0</v>
       </c>
@@ -4177,16 +3218,13 @@
         <v>400000</v>
       </c>
       <c r="N65" t="s">
-        <v>18</v>
-      </c>
-      <c r="O65">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="P65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4205,18 +3243,6 @@
       <c r="E66" t="s">
         <v>7</v>
       </c>
-      <c r="F66">
-        <v>7</v>
-      </c>
-      <c r="G66">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66">
         <v>0</v>
       </c>
@@ -4230,16 +3256,13 @@
         <v>400000</v>
       </c>
       <c r="N66" t="s">
-        <v>18</v>
-      </c>
-      <c r="O66">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="P66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4258,18 +3281,6 @@
       <c r="E67" t="s">
         <v>7</v>
       </c>
-      <c r="F67">
-        <v>7</v>
-      </c>
-      <c r="G67">
-        <v>14</v>
-      </c>
-      <c r="H67" t="s">
-        <v>11</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
       <c r="J67">
         <v>0</v>
       </c>
@@ -4283,16 +3294,13 @@
         <v>400000</v>
       </c>
       <c r="N67" t="s">
-        <v>18</v>
-      </c>
-      <c r="O67">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="P67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4311,18 +3319,6 @@
       <c r="E68" t="s">
         <v>7</v>
       </c>
-      <c r="F68">
-        <v>7</v>
-      </c>
-      <c r="G68">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
       <c r="J68">
         <v>0</v>
       </c>
@@ -4336,16 +3332,13 @@
         <v>400000</v>
       </c>
       <c r="N68" t="s">
-        <v>18</v>
-      </c>
-      <c r="O68">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="P68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -4364,18 +3357,6 @@
       <c r="E69" t="s">
         <v>7</v>
       </c>
-      <c r="F69">
-        <v>7</v>
-      </c>
-      <c r="G69">
-        <v>14</v>
-      </c>
-      <c r="H69" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
       <c r="J69">
         <v>0</v>
       </c>
@@ -4389,16 +3370,13 @@
         <v>400000</v>
       </c>
       <c r="N69" t="s">
-        <v>18</v>
-      </c>
-      <c r="O69">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="P69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -4417,18 +3395,6 @@
       <c r="E70" t="s">
         <v>7</v>
       </c>
-      <c r="F70">
-        <v>7</v>
-      </c>
-      <c r="G70">
-        <v>14</v>
-      </c>
-      <c r="H70" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70">
         <v>0</v>
       </c>
@@ -4442,16 +3408,13 @@
         <v>400000</v>
       </c>
       <c r="N70" t="s">
-        <v>18</v>
-      </c>
-      <c r="O70">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="P70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -4470,18 +3433,6 @@
       <c r="E71" t="s">
         <v>7</v>
       </c>
-      <c r="F71">
-        <v>7</v>
-      </c>
-      <c r="G71">
-        <v>14</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71">
         <v>0</v>
       </c>
@@ -4495,16 +3446,13 @@
         <v>400000</v>
       </c>
       <c r="N71" t="s">
-        <v>18</v>
-      </c>
-      <c r="O71">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="P71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -4523,18 +3471,6 @@
       <c r="E72" t="s">
         <v>7</v>
       </c>
-      <c r="F72">
-        <v>7</v>
-      </c>
-      <c r="G72">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
         <v>0</v>
       </c>
@@ -4548,16 +3484,13 @@
         <v>400000</v>
       </c>
       <c r="N72" t="s">
-        <v>18</v>
-      </c>
-      <c r="O72">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="P72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
@@ -4576,18 +3509,6 @@
       <c r="E73" t="s">
         <v>7</v>
       </c>
-      <c r="F73">
-        <v>7</v>
-      </c>
-      <c r="G73">
-        <v>14</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
       <c r="J73">
         <v>0</v>
       </c>
@@ -4601,16 +3522,13 @@
         <v>400000</v>
       </c>
       <c r="N73" t="s">
-        <v>18</v>
-      </c>
-      <c r="O73">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4629,18 +3547,6 @@
       <c r="E74" t="s">
         <v>7</v>
       </c>
-      <c r="F74">
-        <v>7</v>
-      </c>
-      <c r="G74">
-        <v>14</v>
-      </c>
-      <c r="H74" t="s">
-        <v>11</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
       <c r="J74">
         <v>0</v>
       </c>
@@ -4654,16 +3560,13 @@
         <v>400000</v>
       </c>
       <c r="N74" t="s">
-        <v>18</v>
-      </c>
-      <c r="O74">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="P74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
@@ -4682,18 +3585,6 @@
       <c r="E75" t="s">
         <v>7</v>
       </c>
-      <c r="F75">
-        <v>7</v>
-      </c>
-      <c r="G75">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
       <c r="J75">
         <v>0</v>
       </c>
@@ -4707,16 +3598,13 @@
         <v>400000</v>
       </c>
       <c r="N75" t="s">
-        <v>18</v>
-      </c>
-      <c r="O75">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="P75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
@@ -4735,18 +3623,6 @@
       <c r="E76" t="s">
         <v>7</v>
       </c>
-      <c r="F76">
-        <v>7</v>
-      </c>
-      <c r="G76">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>11</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76">
         <v>0</v>
       </c>
@@ -4760,16 +3636,13 @@
         <v>400000</v>
       </c>
       <c r="N76" t="s">
-        <v>18</v>
-      </c>
-      <c r="O76">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="P76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
@@ -4788,18 +3661,6 @@
       <c r="E77" t="s">
         <v>7</v>
       </c>
-      <c r="F77">
-        <v>7</v>
-      </c>
-      <c r="G77">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
         <v>0</v>
       </c>
@@ -4813,16 +3674,13 @@
         <v>400000</v>
       </c>
       <c r="N77" t="s">
-        <v>18</v>
-      </c>
-      <c r="O77">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="P77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
@@ -4841,18 +3699,6 @@
       <c r="E78" t="s">
         <v>7</v>
       </c>
-      <c r="F78">
-        <v>7</v>
-      </c>
-      <c r="G78">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
       <c r="J78">
         <v>0</v>
       </c>
@@ -4866,16 +3712,13 @@
         <v>400000</v>
       </c>
       <c r="N78" t="s">
-        <v>18</v>
-      </c>
-      <c r="O78">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="P78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -4894,18 +3737,6 @@
       <c r="E79" t="s">
         <v>7</v>
       </c>
-      <c r="F79">
-        <v>7</v>
-      </c>
-      <c r="G79">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s">
-        <v>11</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
       <c r="J79">
         <v>0</v>
       </c>
@@ -4919,16 +3750,13 @@
         <v>400000</v>
       </c>
       <c r="N79" t="s">
-        <v>18</v>
-      </c>
-      <c r="O79">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="P79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
@@ -4947,18 +3775,6 @@
       <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="F80">
-        <v>7</v>
-      </c>
-      <c r="G80">
-        <v>14</v>
-      </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
       <c r="J80">
         <v>0</v>
       </c>
@@ -4972,16 +3788,13 @@
         <v>400000</v>
       </c>
       <c r="N80" t="s">
-        <v>18</v>
-      </c>
-      <c r="O80">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="P80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
@@ -5000,18 +3813,6 @@
       <c r="E81" t="s">
         <v>7</v>
       </c>
-      <c r="F81">
-        <v>7</v>
-      </c>
-      <c r="G81">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
       <c r="J81">
         <v>0</v>
       </c>
@@ -5025,16 +3826,13 @@
         <v>400000</v>
       </c>
       <c r="N81" t="s">
-        <v>18</v>
-      </c>
-      <c r="O81">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="P81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
@@ -5053,18 +3851,6 @@
       <c r="E82" t="s">
         <v>7</v>
       </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
       <c r="J82">
         <v>0</v>
       </c>
@@ -5078,16 +3864,13 @@
         <v>400000</v>
       </c>
       <c r="N82" t="s">
-        <v>18</v>
-      </c>
-      <c r="O82">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="P82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
@@ -5106,18 +3889,6 @@
       <c r="E83" t="s">
         <v>7</v>
       </c>
-      <c r="F83">
-        <v>7</v>
-      </c>
-      <c r="G83">
-        <v>14</v>
-      </c>
-      <c r="H83" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
       <c r="J83">
         <v>0</v>
       </c>
@@ -5131,16 +3902,13 @@
         <v>400000</v>
       </c>
       <c r="N83" t="s">
-        <v>18</v>
-      </c>
-      <c r="O83">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="P83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -5159,18 +3927,6 @@
       <c r="E84" t="s">
         <v>7</v>
       </c>
-      <c r="F84">
-        <v>7</v>
-      </c>
-      <c r="G84">
-        <v>14</v>
-      </c>
-      <c r="H84" t="s">
-        <v>11</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
       <c r="J84">
         <v>0</v>
       </c>
@@ -5184,16 +3940,13 @@
         <v>400000</v>
       </c>
       <c r="N84" t="s">
-        <v>18</v>
-      </c>
-      <c r="O84">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="P84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
@@ -5212,18 +3965,6 @@
       <c r="E85" t="s">
         <v>7</v>
       </c>
-      <c r="F85">
-        <v>7</v>
-      </c>
-      <c r="G85">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s">
-        <v>11</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85">
         <v>0</v>
       </c>
@@ -5237,16 +3978,13 @@
         <v>400000</v>
       </c>
       <c r="N85" t="s">
-        <v>18</v>
-      </c>
-      <c r="O85">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="P85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -5265,18 +4003,6 @@
       <c r="E86" t="s">
         <v>7</v>
       </c>
-      <c r="F86">
-        <v>7</v>
-      </c>
-      <c r="G86">
-        <v>14</v>
-      </c>
-      <c r="H86" t="s">
-        <v>11</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86">
         <v>0</v>
       </c>
@@ -5290,16 +4016,13 @@
         <v>400000</v>
       </c>
       <c r="N86" t="s">
-        <v>18</v>
-      </c>
-      <c r="O86">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="P86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
@@ -5318,18 +4041,6 @@
       <c r="E87" t="s">
         <v>7</v>
       </c>
-      <c r="F87">
-        <v>7</v>
-      </c>
-      <c r="G87">
-        <v>14</v>
-      </c>
-      <c r="H87" t="s">
-        <v>11</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
       <c r="J87">
         <v>0</v>
       </c>
@@ -5343,16 +4054,13 @@
         <v>400000</v>
       </c>
       <c r="N87" t="s">
-        <v>18</v>
-      </c>
-      <c r="O87">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="P87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
@@ -5371,18 +4079,6 @@
       <c r="E88" t="s">
         <v>7</v>
       </c>
-      <c r="F88">
-        <v>7</v>
-      </c>
-      <c r="G88">
-        <v>14</v>
-      </c>
-      <c r="H88" t="s">
-        <v>11</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88">
         <v>0</v>
       </c>
@@ -5396,16 +4092,13 @@
         <v>400000</v>
       </c>
       <c r="N88" t="s">
-        <v>18</v>
-      </c>
-      <c r="O88">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="P88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
@@ -5424,18 +4117,6 @@
       <c r="E89" t="s">
         <v>7</v>
       </c>
-      <c r="F89">
-        <v>7</v>
-      </c>
-      <c r="G89">
-        <v>14</v>
-      </c>
-      <c r="H89" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
       <c r="J89">
         <v>0</v>
       </c>
@@ -5449,16 +4130,13 @@
         <v>400000</v>
       </c>
       <c r="N89" t="s">
-        <v>18</v>
-      </c>
-      <c r="O89">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="P89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
@@ -5477,18 +4155,6 @@
       <c r="E90" t="s">
         <v>7</v>
       </c>
-      <c r="F90">
-        <v>7</v>
-      </c>
-      <c r="G90">
-        <v>14</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90">
         <v>0</v>
       </c>
@@ -5502,16 +4168,13 @@
         <v>400000</v>
       </c>
       <c r="N90" t="s">
-        <v>18</v>
-      </c>
-      <c r="O90">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="P90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
@@ -5530,18 +4193,6 @@
       <c r="E91" t="s">
         <v>7</v>
       </c>
-      <c r="F91">
-        <v>7</v>
-      </c>
-      <c r="G91">
-        <v>14</v>
-      </c>
-      <c r="H91" t="s">
-        <v>11</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
       <c r="J91">
         <v>0</v>
       </c>
@@ -5555,16 +4206,13 @@
         <v>400000</v>
       </c>
       <c r="N91" t="s">
-        <v>18</v>
-      </c>
-      <c r="O91">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="P91" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
@@ -5583,18 +4231,6 @@
       <c r="E92" t="s">
         <v>7</v>
       </c>
-      <c r="F92">
-        <v>7</v>
-      </c>
-      <c r="G92">
-        <v>14</v>
-      </c>
-      <c r="H92" t="s">
-        <v>11</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
       <c r="J92">
         <v>0</v>
       </c>
@@ -5608,16 +4244,13 @@
         <v>400000</v>
       </c>
       <c r="N92" t="s">
-        <v>18</v>
-      </c>
-      <c r="O92">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="P92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
@@ -5636,18 +4269,6 @@
       <c r="E93" t="s">
         <v>7</v>
       </c>
-      <c r="F93">
-        <v>7</v>
-      </c>
-      <c r="G93">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s">
-        <v>11</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93">
         <v>0</v>
       </c>
@@ -5661,16 +4282,13 @@
         <v>400000</v>
       </c>
       <c r="N93" t="s">
-        <v>18</v>
-      </c>
-      <c r="O93">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="P93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -5689,18 +4307,6 @@
       <c r="E94" t="s">
         <v>7</v>
       </c>
-      <c r="F94">
-        <v>7</v>
-      </c>
-      <c r="G94">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s">
-        <v>11</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
       <c r="J94">
         <v>0</v>
       </c>
@@ -5714,16 +4320,13 @@
         <v>400000</v>
       </c>
       <c r="N94" t="s">
-        <v>18</v>
-      </c>
-      <c r="O94">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="P94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
@@ -5742,18 +4345,6 @@
       <c r="E95" t="s">
         <v>7</v>
       </c>
-      <c r="F95">
-        <v>7</v>
-      </c>
-      <c r="G95">
-        <v>14</v>
-      </c>
-      <c r="H95" t="s">
-        <v>11</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95">
         <v>0</v>
       </c>
@@ -5767,16 +4358,13 @@
         <v>400000</v>
       </c>
       <c r="N95" t="s">
-        <v>18</v>
-      </c>
-      <c r="O95">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="P95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
@@ -5795,18 +4383,6 @@
       <c r="E96" t="s">
         <v>7</v>
       </c>
-      <c r="F96">
-        <v>7</v>
-      </c>
-      <c r="G96">
-        <v>14</v>
-      </c>
-      <c r="H96" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96">
         <v>0</v>
       </c>
@@ -5820,16 +4396,13 @@
         <v>400000</v>
       </c>
       <c r="N96" t="s">
-        <v>18</v>
-      </c>
-      <c r="O96">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="P96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
@@ -5848,18 +4421,6 @@
       <c r="E97" t="s">
         <v>7</v>
       </c>
-      <c r="F97">
-        <v>7</v>
-      </c>
-      <c r="G97">
-        <v>14</v>
-      </c>
-      <c r="H97" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
       <c r="J97">
         <v>0</v>
       </c>
@@ -5873,16 +4434,13 @@
         <v>400000</v>
       </c>
       <c r="N97" t="s">
-        <v>18</v>
-      </c>
-      <c r="O97">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="P97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
@@ -5901,18 +4459,6 @@
       <c r="E98" t="s">
         <v>7</v>
       </c>
-      <c r="F98">
-        <v>7</v>
-      </c>
-      <c r="G98">
-        <v>14</v>
-      </c>
-      <c r="H98" t="s">
-        <v>11</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
       <c r="J98">
         <v>0</v>
       </c>
@@ -5926,16 +4472,13 @@
         <v>400000</v>
       </c>
       <c r="N98" t="s">
-        <v>18</v>
-      </c>
-      <c r="O98">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="P98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
@@ -5954,18 +4497,6 @@
       <c r="E99" t="s">
         <v>7</v>
       </c>
-      <c r="F99">
-        <v>7</v>
-      </c>
-      <c r="G99">
-        <v>14</v>
-      </c>
-      <c r="H99" t="s">
-        <v>11</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99">
         <v>0</v>
       </c>
@@ -5979,16 +4510,13 @@
         <v>400000</v>
       </c>
       <c r="N99" t="s">
-        <v>18</v>
-      </c>
-      <c r="O99">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="P99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
@@ -6007,18 +4535,6 @@
       <c r="E100" t="s">
         <v>7</v>
       </c>
-      <c r="F100">
-        <v>7</v>
-      </c>
-      <c r="G100">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100">
         <v>0</v>
       </c>
@@ -6032,16 +4548,13 @@
         <v>400000</v>
       </c>
       <c r="N100" t="s">
-        <v>18</v>
-      </c>
-      <c r="O100">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="P100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -6060,18 +4573,6 @@
       <c r="E101" t="s">
         <v>7</v>
       </c>
-      <c r="F101">
-        <v>7</v>
-      </c>
-      <c r="G101">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101">
         <v>0</v>
       </c>
@@ -6085,16 +4586,13 @@
         <v>400000</v>
       </c>
       <c r="N101" t="s">
-        <v>18</v>
-      </c>
-      <c r="O101">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="P101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q101" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/KYC_Amendment_Customer.xlsx
+++ b/Excel Data/KYC_Amendment_Customer.xlsx
@@ -717,9 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Excel Data/KYC_Amendment_Customer.xlsx
+++ b/Excel Data/KYC_Amendment_Customer.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="KYC_Amendment_Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="KYC_Amendment_Customer" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="123">
   <si>
     <t>OCCUPATION</t>
   </si>
@@ -715,9 +716,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16324801</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>20000000</v>
+      </c>
+      <c r="M2">
+        <v>400000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="A1:Q101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
